--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Itgav-Thy1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Itgav-Thy1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="H2">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="I2">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="J2">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.29184975659483</v>
+        <v>2.015745</v>
       </c>
       <c r="N2">
-        <v>1.29184975659483</v>
+        <v>6.047235</v>
       </c>
       <c r="O2">
-        <v>0.01249437096093258</v>
+        <v>0.01857080082826053</v>
       </c>
       <c r="P2">
-        <v>0.01249437096093258</v>
+        <v>0.01857080082826054</v>
       </c>
       <c r="Q2">
-        <v>6.029066094677518</v>
+        <v>20.159768778665</v>
       </c>
       <c r="R2">
-        <v>6.029066094677518</v>
+        <v>181.437919007985</v>
       </c>
       <c r="S2">
-        <v>0.0002186247296465211</v>
+        <v>0.0006595186380895227</v>
       </c>
       <c r="T2">
-        <v>0.0002186247296465211</v>
+        <v>0.0006595186380895231</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="H3">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="I3">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="J3">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>80.4617696742297</v>
+        <v>80.79459133333334</v>
       </c>
       <c r="N3">
-        <v>80.4617696742297</v>
+        <v>242.383774</v>
       </c>
       <c r="O3">
-        <v>0.7782013297992554</v>
+        <v>0.7443502346040984</v>
       </c>
       <c r="P3">
-        <v>0.7782013297992554</v>
+        <v>0.7443502346040985</v>
       </c>
       <c r="Q3">
-        <v>375.5152834021066</v>
+        <v>808.0388540448972</v>
       </c>
       <c r="R3">
-        <v>375.5152834021066</v>
+        <v>7272.349686404075</v>
       </c>
       <c r="S3">
-        <v>0.01361685641237169</v>
+        <v>0.02643466253973572</v>
       </c>
       <c r="T3">
-        <v>0.01361685641237169</v>
+        <v>0.02643466253973573</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="H4">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="I4">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="J4">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.47011368952789</v>
+        <v>0.1439546666666667</v>
       </c>
       <c r="N4">
-        <v>1.47011368952789</v>
+        <v>0.431864</v>
       </c>
       <c r="O4">
-        <v>0.01421848453965969</v>
+        <v>0.001326235929130571</v>
       </c>
       <c r="P4">
-        <v>0.01421848453965969</v>
+        <v>0.001326235929130571</v>
       </c>
       <c r="Q4">
-        <v>6.861024322376951</v>
+        <v>1.439712262518222</v>
       </c>
       <c r="R4">
-        <v>6.861024322376951</v>
+        <v>12.957410362664</v>
       </c>
       <c r="S4">
-        <v>0.0002487930243295994</v>
+        <v>4.709960124253377E-05</v>
       </c>
       <c r="T4">
-        <v>0.0002487930243295994</v>
+        <v>4.709960124253379E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="H5">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="I5">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="J5">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.1708083603022</v>
+        <v>1.513283</v>
       </c>
       <c r="N5">
-        <v>20.1708083603022</v>
+        <v>4.539849</v>
       </c>
       <c r="O5">
-        <v>0.1950858147001523</v>
+        <v>0.01394168269785741</v>
       </c>
       <c r="P5">
-        <v>0.1950858147001523</v>
+        <v>0.01394168269785741</v>
       </c>
       <c r="Q5">
-        <v>94.1372138412512</v>
+        <v>15.13457077987767</v>
       </c>
       <c r="R5">
-        <v>94.1372138412512</v>
+        <v>136.211137018899</v>
       </c>
       <c r="S5">
-        <v>0.003413583895503986</v>
+        <v>0.0004951213289399341</v>
       </c>
       <c r="T5">
-        <v>0.003413583895503986</v>
+        <v>0.0004951213289399343</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>70.8839904452083</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="H6">
-        <v>70.8839904452083</v>
+        <v>30.003451</v>
       </c>
       <c r="I6">
-        <v>0.2657633016418746</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="J6">
-        <v>0.2657633016418746</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>1.29184975659483</v>
+        <v>0.5362146666666666</v>
       </c>
       <c r="N6">
-        <v>1.29184975659483</v>
+        <v>1.608644</v>
       </c>
       <c r="O6">
-        <v>0.01249437096093258</v>
+        <v>0.004940077130717814</v>
       </c>
       <c r="P6">
-        <v>0.01249437096093258</v>
+        <v>0.004940077130717815</v>
       </c>
       <c r="Q6">
-        <v>91.57146580311259</v>
+        <v>5.362763492271555</v>
       </c>
       <c r="R6">
-        <v>91.57146580311259</v>
+        <v>48.264871430444</v>
       </c>
       <c r="S6">
-        <v>0.003320545278515803</v>
+        <v>0.0001754406270057113</v>
       </c>
       <c r="T6">
-        <v>0.003320545278515803</v>
+        <v>0.0001754406270057113</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>70.8839904452083</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="H7">
-        <v>70.8839904452083</v>
+        <v>30.003451</v>
       </c>
       <c r="I7">
-        <v>0.2657633016418746</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="J7">
-        <v>0.2657633016418746</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>80.4617696742297</v>
+        <v>23.53999566666667</v>
       </c>
       <c r="N7">
-        <v>80.4617696742297</v>
+        <v>70.61998700000001</v>
       </c>
       <c r="O7">
-        <v>0.7782013297992554</v>
+        <v>0.2168709688099352</v>
       </c>
       <c r="P7">
-        <v>0.7782013297992554</v>
+        <v>0.2168709688099352</v>
       </c>
       <c r="Q7">
-        <v>5703.451312792648</v>
+        <v>235.4270355083486</v>
       </c>
       <c r="R7">
-        <v>5703.451312792648</v>
+        <v>2118.843319575137</v>
       </c>
       <c r="S7">
-        <v>0.2068173547495474</v>
+        <v>0.007701899735687436</v>
       </c>
       <c r="T7">
-        <v>0.2068173547495474</v>
+        <v>0.007701899735687439</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="H8">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="I8">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="J8">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.47011368952789</v>
+        <v>2.015745</v>
       </c>
       <c r="N8">
-        <v>1.47011368952789</v>
+        <v>6.047235</v>
       </c>
       <c r="O8">
-        <v>0.01421848453965969</v>
+        <v>0.01857080082826053</v>
       </c>
       <c r="P8">
-        <v>0.01421848453965969</v>
+        <v>0.01857080082826054</v>
       </c>
       <c r="Q8">
-        <v>104.2075247218649</v>
+        <v>143.886066527155</v>
       </c>
       <c r="R8">
-        <v>104.2075247218649</v>
+        <v>1294.974598744395</v>
       </c>
       <c r="S8">
-        <v>0.003778751395603907</v>
+        <v>0.004707174158489123</v>
       </c>
       <c r="T8">
-        <v>0.003778751395603907</v>
+        <v>0.004707174158489125</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,122 +968,122 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="H9">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="I9">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="J9">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.1708083603022</v>
+        <v>80.79459133333334</v>
       </c>
       <c r="N9">
-        <v>20.1708083603022</v>
+        <v>242.383774</v>
       </c>
       <c r="O9">
-        <v>0.1950858147001523</v>
+        <v>0.7443502346040984</v>
       </c>
       <c r="P9">
-        <v>0.1950858147001523</v>
+        <v>0.7443502346040985</v>
       </c>
       <c r="Q9">
-        <v>1429.787387083789</v>
+        <v>5767.205645367992</v>
       </c>
       <c r="R9">
-        <v>1429.787387083789</v>
+        <v>51904.85080831192</v>
       </c>
       <c r="S9">
-        <v>0.05184665021820743</v>
+        <v>0.1886717875871978</v>
       </c>
       <c r="T9">
-        <v>0.05184665021820743</v>
+        <v>0.1886717875871979</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>63.0634075554414</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="H10">
-        <v>63.0634075554414</v>
+        <v>214.143257</v>
       </c>
       <c r="I10">
-        <v>0.2364418156971043</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="J10">
-        <v>0.2364418156971043</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.29184975659483</v>
+        <v>0.1439546666666667</v>
       </c>
       <c r="N10">
-        <v>1.29184975659483</v>
+        <v>0.431864</v>
       </c>
       <c r="O10">
-        <v>0.01249437096093258</v>
+        <v>0.001326235929130571</v>
       </c>
       <c r="P10">
-        <v>0.01249437096093258</v>
+        <v>0.001326235929130571</v>
       </c>
       <c r="Q10">
-        <v>81.46844770053754</v>
+        <v>10.27564039344978</v>
       </c>
       <c r="R10">
-        <v>81.46844770053754</v>
+        <v>92.48076354104801</v>
       </c>
       <c r="S10">
-        <v>0.002954191755996073</v>
+        <v>0.000336163397119799</v>
       </c>
       <c r="T10">
-        <v>0.002954191755996073</v>
+        <v>0.0003361633971197991</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>63.0634075554414</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="H11">
-        <v>63.0634075554414</v>
+        <v>214.143257</v>
       </c>
       <c r="I11">
-        <v>0.2364418156971043</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="J11">
-        <v>0.2364418156971043</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>80.4617696742297</v>
+        <v>1.513283</v>
       </c>
       <c r="N11">
-        <v>80.4617696742297</v>
+        <v>4.539849</v>
       </c>
       <c r="O11">
-        <v>0.7782013297992554</v>
+        <v>0.01394168269785741</v>
       </c>
       <c r="P11">
-        <v>0.7782013297992554</v>
+        <v>0.01394168269785741</v>
       </c>
       <c r="Q11">
-        <v>5074.193373598003</v>
+        <v>108.0197834609103</v>
       </c>
       <c r="R11">
-        <v>5074.193373598003</v>
+        <v>972.178051148193</v>
       </c>
       <c r="S11">
-        <v>0.183999335395637</v>
+        <v>0.003533823292172818</v>
       </c>
       <c r="T11">
-        <v>0.183999335395637</v>
+        <v>0.00353382329217282</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>63.0634075554414</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="H12">
-        <v>63.0634075554414</v>
+        <v>214.143257</v>
       </c>
       <c r="I12">
-        <v>0.2364418156971043</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="J12">
-        <v>0.2364418156971043</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>1.47011368952789</v>
+        <v>0.5362146666666666</v>
       </c>
       <c r="N12">
-        <v>1.47011368952789</v>
+        <v>1.608644</v>
       </c>
       <c r="O12">
-        <v>0.01421848453965969</v>
+        <v>0.004940077130717814</v>
       </c>
       <c r="P12">
-        <v>0.01421848453965969</v>
+        <v>0.004940077130717815</v>
       </c>
       <c r="Q12">
-        <v>92.71037875553097</v>
+        <v>38.27558505705644</v>
       </c>
       <c r="R12">
-        <v>92.71037875553097</v>
+        <v>344.480265513508</v>
       </c>
       <c r="S12">
-        <v>0.003361844301018343</v>
+        <v>0.001252170201258687</v>
       </c>
       <c r="T12">
-        <v>0.003361844301018343</v>
+        <v>0.001252170201258688</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>63.0634075554414</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="H13">
-        <v>63.0634075554414</v>
+        <v>214.143257</v>
       </c>
       <c r="I13">
-        <v>0.2364418156971043</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="J13">
-        <v>0.2364418156971043</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>20.1708083603022</v>
+        <v>23.53999566666667</v>
       </c>
       <c r="N13">
-        <v>20.1708083603022</v>
+        <v>70.61998700000001</v>
       </c>
       <c r="O13">
-        <v>0.1950858147001523</v>
+        <v>0.2168709688099352</v>
       </c>
       <c r="P13">
-        <v>0.1950858147001523</v>
+        <v>0.2168709688099352</v>
       </c>
       <c r="Q13">
-        <v>1272.039908348442</v>
+        <v>1680.310447275296</v>
       </c>
       <c r="R13">
-        <v>1272.039908348442</v>
+        <v>15122.79402547766</v>
       </c>
       <c r="S13">
-        <v>0.04612644424445286</v>
+        <v>0.05497067302316479</v>
       </c>
       <c r="T13">
-        <v>0.04612644424445286</v>
+        <v>0.05497067302316481</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>78.7861645342972</v>
+        <v>69.803866</v>
       </c>
       <c r="H14">
-        <v>78.7861645342972</v>
+        <v>209.411598</v>
       </c>
       <c r="I14">
-        <v>0.2953906951178171</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="J14">
-        <v>0.2953906951178171</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.29184975659483</v>
+        <v>2.015745</v>
       </c>
       <c r="N14">
-        <v>1.29184975659483</v>
+        <v>6.047235</v>
       </c>
       <c r="O14">
-        <v>0.01249437096093258</v>
+        <v>0.01857080082826053</v>
       </c>
       <c r="P14">
-        <v>0.01249437096093258</v>
+        <v>0.01857080082826054</v>
       </c>
       <c r="Q14">
-        <v>101.7798874766721</v>
+        <v>140.70679387017</v>
       </c>
       <c r="R14">
-        <v>101.7798874766721</v>
+        <v>1266.36114483153</v>
       </c>
       <c r="S14">
-        <v>0.003690720923209743</v>
+        <v>0.004603165546293679</v>
       </c>
       <c r="T14">
-        <v>0.003690720923209743</v>
+        <v>0.00460316554629368</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,57 +1343,57 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>78.7861645342972</v>
+        <v>69.803866</v>
       </c>
       <c r="H15">
-        <v>78.7861645342972</v>
+        <v>209.411598</v>
       </c>
       <c r="I15">
-        <v>0.2953906951178171</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="J15">
-        <v>0.2953906951178171</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>80.4617696742297</v>
+        <v>80.79459133333334</v>
       </c>
       <c r="N15">
-        <v>80.4617696742297</v>
+        <v>242.383774</v>
       </c>
       <c r="O15">
-        <v>0.7782013297992554</v>
+        <v>0.7443502346040984</v>
       </c>
       <c r="P15">
-        <v>0.7782013297992554</v>
+        <v>0.7443502346040985</v>
       </c>
       <c r="Q15">
-        <v>6339.274224274586</v>
+        <v>5639.774826956762</v>
       </c>
       <c r="R15">
-        <v>6339.274224274586</v>
+        <v>50757.97344261086</v>
       </c>
       <c r="S15">
-        <v>0.2298734317510117</v>
+        <v>0.1845029401796745</v>
       </c>
       <c r="T15">
-        <v>0.2298734317510117</v>
+        <v>0.1845029401796745</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,184 +1402,184 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>78.7861645342972</v>
+        <v>69.803866</v>
       </c>
       <c r="H16">
-        <v>78.7861645342972</v>
+        <v>209.411598</v>
       </c>
       <c r="I16">
-        <v>0.2953906951178171</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="J16">
-        <v>0.2953906951178171</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>1.47011368952789</v>
+        <v>0.1439546666666667</v>
       </c>
       <c r="N16">
-        <v>1.47011368952789</v>
+        <v>0.431864</v>
       </c>
       <c r="O16">
-        <v>0.01421848453965969</v>
+        <v>0.001326235929130571</v>
       </c>
       <c r="P16">
-        <v>0.01421848453965969</v>
+        <v>0.001326235929130571</v>
       </c>
       <c r="Q16">
-        <v>115.824619027267</v>
+        <v>10.04859226207467</v>
       </c>
       <c r="R16">
-        <v>115.824619027267</v>
+        <v>90.437330358672</v>
       </c>
       <c r="S16">
-        <v>0.004200008031692011</v>
+        <v>0.0003287356098257425</v>
       </c>
       <c r="T16">
-        <v>0.004200008031692011</v>
+        <v>0.0003287356098257426</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>78.7861645342972</v>
+        <v>69.803866</v>
       </c>
       <c r="H17">
-        <v>78.7861645342972</v>
+        <v>209.411598</v>
       </c>
       <c r="I17">
-        <v>0.2953906951178171</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="J17">
-        <v>0.2953906951178171</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>20.1708083603022</v>
+        <v>1.513283</v>
       </c>
       <c r="N17">
-        <v>20.1708083603022</v>
+        <v>4.539849</v>
       </c>
       <c r="O17">
-        <v>0.1950858147001523</v>
+        <v>0.01394168269785741</v>
       </c>
       <c r="P17">
-        <v>0.1950858147001523</v>
+        <v>0.01394168269785741</v>
       </c>
       <c r="Q17">
-        <v>1589.180626264547</v>
+        <v>105.633003752078</v>
       </c>
       <c r="R17">
-        <v>1589.180626264547</v>
+        <v>950.697033768702</v>
       </c>
       <c r="S17">
-        <v>0.05762653441190366</v>
+        <v>0.003455740764527229</v>
       </c>
       <c r="T17">
-        <v>0.05762653441190366</v>
+        <v>0.003455740764527229</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>30.1363082639047</v>
+        <v>69.803866</v>
       </c>
       <c r="H18">
-        <v>30.1363082639047</v>
+        <v>209.411598</v>
       </c>
       <c r="I18">
-        <v>0.1129891916807857</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="J18">
-        <v>0.1129891916807857</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>1.29184975659483</v>
+        <v>0.5362146666666666</v>
       </c>
       <c r="N18">
-        <v>1.29184975659483</v>
+        <v>1.608644</v>
       </c>
       <c r="O18">
-        <v>0.01249437096093258</v>
+        <v>0.004940077130717814</v>
       </c>
       <c r="P18">
-        <v>0.01249437096093258</v>
+        <v>0.004940077130717815</v>
       </c>
       <c r="Q18">
-        <v>38.93158249539205</v>
+        <v>37.42985673923467</v>
       </c>
       <c r="R18">
-        <v>38.93158249539205</v>
+        <v>336.868710653112</v>
       </c>
       <c r="S18">
-        <v>0.001411728875435653</v>
+        <v>0.001224502543237041</v>
       </c>
       <c r="T18">
-        <v>0.001411728875435653</v>
+        <v>0.001224502543237042</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>30.1363082639047</v>
+        <v>69.803866</v>
       </c>
       <c r="H19">
-        <v>30.1363082639047</v>
+        <v>209.411598</v>
       </c>
       <c r="I19">
-        <v>0.1129891916807857</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="J19">
-        <v>0.1129891916807857</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>80.4617696742297</v>
+        <v>23.53999566666667</v>
       </c>
       <c r="N19">
-        <v>80.4617696742297</v>
+        <v>70.61998700000001</v>
       </c>
       <c r="O19">
-        <v>0.7782013297992554</v>
+        <v>0.2168709688099352</v>
       </c>
       <c r="P19">
-        <v>0.7782013297992554</v>
+        <v>0.2168709688099352</v>
       </c>
       <c r="Q19">
-        <v>2424.820694361885</v>
+        <v>1643.182703156581</v>
       </c>
       <c r="R19">
-        <v>2424.820694361885</v>
+        <v>14788.64432840923</v>
       </c>
       <c r="S19">
-        <v>0.08792833921893038</v>
+        <v>0.05375605397146093</v>
       </c>
       <c r="T19">
-        <v>0.08792833921893038</v>
+        <v>0.05375605397146094</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,60 +1650,60 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>30.1363082639047</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="H20">
-        <v>30.1363082639047</v>
+        <v>239.291465</v>
       </c>
       <c r="I20">
-        <v>0.1129891916807857</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="J20">
-        <v>0.1129891916807857</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.47011368952789</v>
+        <v>2.015745</v>
       </c>
       <c r="N20">
-        <v>1.47011368952789</v>
+        <v>6.047235</v>
       </c>
       <c r="O20">
-        <v>0.01421848453965969</v>
+        <v>0.01857080082826053</v>
       </c>
       <c r="P20">
-        <v>0.01421848453965969</v>
+        <v>0.01857080082826054</v>
       </c>
       <c r="Q20">
-        <v>44.30379933059878</v>
+        <v>160.783524705475</v>
       </c>
       <c r="R20">
-        <v>44.30379933059878</v>
+        <v>1447.051722349275</v>
       </c>
       <c r="S20">
-        <v>0.001606535075061896</v>
+        <v>0.005259967631831642</v>
       </c>
       <c r="T20">
-        <v>0.001606535075061896</v>
+        <v>0.005259967631831644</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>30.1363082639047</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="H21">
-        <v>30.1363082639047</v>
+        <v>239.291465</v>
       </c>
       <c r="I21">
-        <v>0.1129891916807857</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="J21">
-        <v>0.1129891916807857</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>20.1708083603022</v>
+        <v>80.79459133333334</v>
       </c>
       <c r="N21">
-        <v>20.1708083603022</v>
+        <v>242.383774</v>
       </c>
       <c r="O21">
-        <v>0.1950858147001523</v>
+        <v>0.7443502346040984</v>
       </c>
       <c r="P21">
-        <v>0.1950858147001523</v>
+        <v>0.7443502346040985</v>
       </c>
       <c r="Q21">
-        <v>607.8736986782131</v>
+        <v>6444.485374743213</v>
       </c>
       <c r="R21">
-        <v>607.8736986782131</v>
+        <v>58000.36837268892</v>
       </c>
       <c r="S21">
-        <v>0.02204258851135775</v>
+        <v>0.210828718533544</v>
       </c>
       <c r="T21">
-        <v>0.02204258851135775</v>
+        <v>0.2108287185335441</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>19.1816314638186</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="H22">
-        <v>19.1816314638186</v>
+        <v>239.291465</v>
       </c>
       <c r="I22">
-        <v>0.07191713780056665</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="J22">
-        <v>0.07191713780056665</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>1.29184975659483</v>
+        <v>0.1439546666666667</v>
       </c>
       <c r="N22">
-        <v>1.29184975659483</v>
+        <v>0.431864</v>
       </c>
       <c r="O22">
-        <v>0.01249437096093258</v>
+        <v>0.001326235929130571</v>
       </c>
       <c r="P22">
-        <v>0.01249437096093258</v>
+        <v>0.001326235929130571</v>
       </c>
       <c r="Q22">
-        <v>24.77978593762579</v>
+        <v>11.48237436008445</v>
       </c>
       <c r="R22">
-        <v>24.77978593762579</v>
+        <v>103.34136924076</v>
       </c>
       <c r="S22">
-        <v>0.0008985593981287865</v>
+        <v>0.000375641208147747</v>
       </c>
       <c r="T22">
-        <v>0.0008985593981287865</v>
+        <v>0.0003756412081477471</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>19.1816314638186</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="H23">
-        <v>19.1816314638186</v>
+        <v>239.291465</v>
       </c>
       <c r="I23">
-        <v>0.07191713780056665</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="J23">
-        <v>0.07191713780056665</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>80.4617696742297</v>
+        <v>1.513283</v>
       </c>
       <c r="N23">
-        <v>80.4617696742297</v>
+        <v>4.539849</v>
       </c>
       <c r="O23">
-        <v>0.7782013297992554</v>
+        <v>0.01394168269785741</v>
       </c>
       <c r="P23">
-        <v>0.7782013297992554</v>
+        <v>0.01394168269785741</v>
       </c>
       <c r="Q23">
-        <v>1543.38801281773</v>
+        <v>120.7052353431984</v>
       </c>
       <c r="R23">
-        <v>1543.38801281773</v>
+        <v>1086.347118088785</v>
       </c>
       <c r="S23">
-        <v>0.05596601227175726</v>
+        <v>0.003948822692255758</v>
       </c>
       <c r="T23">
-        <v>0.05596601227175726</v>
+        <v>0.00394882269225576</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,60 +1898,60 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>19.1816314638186</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="H24">
-        <v>19.1816314638186</v>
+        <v>239.291465</v>
       </c>
       <c r="I24">
-        <v>0.07191713780056665</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="J24">
-        <v>0.07191713780056665</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>1.47011368952789</v>
+        <v>0.5362146666666666</v>
       </c>
       <c r="N24">
-        <v>1.47011368952789</v>
+        <v>1.608644</v>
       </c>
       <c r="O24">
-        <v>0.01421848453965969</v>
+        <v>0.004940077130717814</v>
       </c>
       <c r="P24">
-        <v>0.01421848453965969</v>
+        <v>0.004940077130717815</v>
       </c>
       <c r="Q24">
-        <v>28.19917900243862</v>
+        <v>42.77053104705111</v>
       </c>
       <c r="R24">
-        <v>28.19917900243862</v>
+        <v>384.93477942346</v>
       </c>
       <c r="S24">
-        <v>0.001022552711953932</v>
+        <v>0.001399220531555361</v>
       </c>
       <c r="T24">
-        <v>0.001022552711953932</v>
+        <v>0.001399220531555361</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1963,52 +1963,796 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>19.1816314638186</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="H25">
-        <v>19.1816314638186</v>
+        <v>239.291465</v>
       </c>
       <c r="I25">
-        <v>0.07191713780056665</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="J25">
-        <v>0.07191713780056665</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>20.1708083603022</v>
+        <v>23.53999566666667</v>
       </c>
       <c r="N25">
-        <v>20.1708083603022</v>
+        <v>70.61998700000001</v>
       </c>
       <c r="O25">
-        <v>0.1950858147001523</v>
+        <v>0.2168709688099352</v>
       </c>
       <c r="P25">
-        <v>0.1950858147001523</v>
+        <v>0.2168709688099352</v>
       </c>
       <c r="Q25">
-        <v>386.9090122946279</v>
+        <v>1877.640016390106</v>
       </c>
       <c r="R25">
-        <v>386.9090122946279</v>
+        <v>16898.76014751096</v>
       </c>
       <c r="S25">
-        <v>0.01403001341872667</v>
+        <v>0.06142622963724271</v>
       </c>
       <c r="T25">
-        <v>0.01403001341872667</v>
+        <v>0.06142622963724273</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>30.30225433333333</v>
+      </c>
+      <c r="H26">
+        <v>90.906763</v>
+      </c>
+      <c r="I26">
+        <v>0.1076022678200263</v>
+      </c>
+      <c r="J26">
+        <v>0.1076022678200263</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2.015745</v>
+      </c>
+      <c r="N26">
+        <v>6.047235</v>
+      </c>
+      <c r="O26">
+        <v>0.01857080082826053</v>
+      </c>
+      <c r="P26">
+        <v>0.01857080082826054</v>
+      </c>
+      <c r="Q26">
+        <v>61.081617661145</v>
+      </c>
+      <c r="R26">
+        <v>549.734558950305</v>
+      </c>
+      <c r="S26">
+        <v>0.001998260284354857</v>
+      </c>
+      <c r="T26">
+        <v>0.001998260284354857</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>30.30225433333333</v>
+      </c>
+      <c r="H27">
+        <v>90.906763</v>
+      </c>
+      <c r="I27">
+        <v>0.1076022678200263</v>
+      </c>
+      <c r="J27">
+        <v>0.1076022678200263</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>80.79459133333334</v>
+      </c>
+      <c r="N27">
+        <v>242.383774</v>
+      </c>
+      <c r="O27">
+        <v>0.7443502346040984</v>
+      </c>
+      <c r="P27">
+        <v>0.7443502346040985</v>
+      </c>
+      <c r="Q27">
+        <v>2448.258255340396</v>
+      </c>
+      <c r="R27">
+        <v>22034.32429806356</v>
+      </c>
+      <c r="S27">
+        <v>0.08009377329576964</v>
+      </c>
+      <c r="T27">
+        <v>0.08009377329576965</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>30.30225433333333</v>
+      </c>
+      <c r="H28">
+        <v>90.906763</v>
+      </c>
+      <c r="I28">
+        <v>0.1076022678200263</v>
+      </c>
+      <c r="J28">
+        <v>0.1076022678200263</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.1439546666666667</v>
+      </c>
+      <c r="N28">
+        <v>0.431864</v>
+      </c>
+      <c r="O28">
+        <v>0.001326235929130571</v>
+      </c>
+      <c r="P28">
+        <v>0.001326235929130571</v>
+      </c>
+      <c r="Q28">
+        <v>4.362150921803556</v>
+      </c>
+      <c r="R28">
+        <v>39.259358296232</v>
+      </c>
+      <c r="S28">
+        <v>0.0001427059936388492</v>
+      </c>
+      <c r="T28">
+        <v>0.0001427059936388492</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>30.30225433333333</v>
+      </c>
+      <c r="H29">
+        <v>90.906763</v>
+      </c>
+      <c r="I29">
+        <v>0.1076022678200263</v>
+      </c>
+      <c r="J29">
+        <v>0.1076022678200263</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1.513283</v>
+      </c>
+      <c r="N29">
+        <v>4.539849</v>
+      </c>
+      <c r="O29">
+        <v>0.01394168269785741</v>
+      </c>
+      <c r="P29">
+        <v>0.01394168269785741</v>
+      </c>
+      <c r="Q29">
+        <v>45.85588634430967</v>
+      </c>
+      <c r="R29">
+        <v>412.702977098787</v>
+      </c>
+      <c r="S29">
+        <v>0.001500156675516681</v>
+      </c>
+      <c r="T29">
+        <v>0.001500156675516681</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>30.30225433333333</v>
+      </c>
+      <c r="H30">
+        <v>90.906763</v>
+      </c>
+      <c r="I30">
+        <v>0.1076022678200263</v>
+      </c>
+      <c r="J30">
+        <v>0.1076022678200263</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M30">
+        <v>0.5362146666666666</v>
+      </c>
+      <c r="N30">
+        <v>1.608644</v>
+      </c>
+      <c r="O30">
+        <v>0.004940077130717814</v>
+      </c>
+      <c r="P30">
+        <v>0.004940077130717815</v>
+      </c>
+      <c r="Q30">
+        <v>16.24851320659689</v>
+      </c>
+      <c r="R30">
+        <v>146.236618859372</v>
+      </c>
+      <c r="S30">
+        <v>0.0005315635024710856</v>
+      </c>
+      <c r="T30">
+        <v>0.0005315635024710857</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>30.30225433333333</v>
+      </c>
+      <c r="H31">
+        <v>90.906763</v>
+      </c>
+      <c r="I31">
+        <v>0.1076022678200263</v>
+      </c>
+      <c r="J31">
+        <v>0.1076022678200263</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>23.53999566666667</v>
+      </c>
+      <c r="N31">
+        <v>70.61998700000001</v>
+      </c>
+      <c r="O31">
+        <v>0.2168709688099352</v>
+      </c>
+      <c r="P31">
+        <v>0.2168709688099352</v>
+      </c>
+      <c r="Q31">
+        <v>713.314935696898</v>
+      </c>
+      <c r="R31">
+        <v>6419.834421272081</v>
+      </c>
+      <c r="S31">
+        <v>0.02333580806827523</v>
+      </c>
+      <c r="T31">
+        <v>0.02333580806827523</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>20.36135066666667</v>
+      </c>
+      <c r="H32">
+        <v>61.084052</v>
+      </c>
+      <c r="I32">
+        <v>0.07230245920027331</v>
+      </c>
+      <c r="J32">
+        <v>0.07230245920027331</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>2.015745</v>
+      </c>
+      <c r="N32">
+        <v>6.047235</v>
+      </c>
+      <c r="O32">
+        <v>0.01857080082826053</v>
+      </c>
+      <c r="P32">
+        <v>0.01857080082826054</v>
+      </c>
+      <c r="Q32">
+        <v>41.04329079958</v>
+      </c>
+      <c r="R32">
+        <v>369.38961719622</v>
+      </c>
+      <c r="S32">
+        <v>0.001342714569201709</v>
+      </c>
+      <c r="T32">
+        <v>0.001342714569201709</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>20.36135066666667</v>
+      </c>
+      <c r="H33">
+        <v>61.084052</v>
+      </c>
+      <c r="I33">
+        <v>0.07230245920027331</v>
+      </c>
+      <c r="J33">
+        <v>0.07230245920027331</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>80.79459133333334</v>
+      </c>
+      <c r="N33">
+        <v>242.383774</v>
+      </c>
+      <c r="O33">
+        <v>0.7443502346040984</v>
+      </c>
+      <c r="P33">
+        <v>0.7443502346040985</v>
+      </c>
+      <c r="Q33">
+        <v>1645.087006108028</v>
+      </c>
+      <c r="R33">
+        <v>14805.78305497225</v>
+      </c>
+      <c r="S33">
+        <v>0.05381835246817669</v>
+      </c>
+      <c r="T33">
+        <v>0.05381835246817671</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>20.36135066666667</v>
+      </c>
+      <c r="H34">
+        <v>61.084052</v>
+      </c>
+      <c r="I34">
+        <v>0.07230245920027331</v>
+      </c>
+      <c r="J34">
+        <v>0.07230245920027331</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.1439546666666667</v>
+      </c>
+      <c r="N34">
+        <v>0.431864</v>
+      </c>
+      <c r="O34">
+        <v>0.001326235929130571</v>
+      </c>
+      <c r="P34">
+        <v>0.001326235929130571</v>
+      </c>
+      <c r="Q34">
+        <v>2.931111448103111</v>
+      </c>
+      <c r="R34">
+        <v>26.380003032928</v>
+      </c>
+      <c r="S34">
+        <v>9.589011915589968E-05</v>
+      </c>
+      <c r="T34">
+        <v>9.58901191558997E-05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>20.36135066666667</v>
+      </c>
+      <c r="H35">
+        <v>61.084052</v>
+      </c>
+      <c r="I35">
+        <v>0.07230245920027331</v>
+      </c>
+      <c r="J35">
+        <v>0.07230245920027331</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1.513283</v>
+      </c>
+      <c r="N35">
+        <v>4.539849</v>
+      </c>
+      <c r="O35">
+        <v>0.01394168269785741</v>
+      </c>
+      <c r="P35">
+        <v>0.01394168269785741</v>
+      </c>
+      <c r="Q35">
+        <v>30.81248582090534</v>
+      </c>
+      <c r="R35">
+        <v>277.312372388148</v>
+      </c>
+      <c r="S35">
+        <v>0.001008017944444992</v>
+      </c>
+      <c r="T35">
+        <v>0.001008017944444992</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>20.36135066666667</v>
+      </c>
+      <c r="H36">
+        <v>61.084052</v>
+      </c>
+      <c r="I36">
+        <v>0.07230245920027331</v>
+      </c>
+      <c r="J36">
+        <v>0.07230245920027331</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M36">
+        <v>0.5362146666666666</v>
+      </c>
+      <c r="N36">
+        <v>1.608644</v>
+      </c>
+      <c r="O36">
+        <v>0.004940077130717814</v>
+      </c>
+      <c r="P36">
+        <v>0.004940077130717815</v>
+      </c>
+      <c r="Q36">
+        <v>10.91805486060978</v>
+      </c>
+      <c r="R36">
+        <v>98.262493745488</v>
+      </c>
+      <c r="S36">
+        <v>0.000357179725189928</v>
+      </c>
+      <c r="T36">
+        <v>0.0003571797251899281</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>20.36135066666667</v>
+      </c>
+      <c r="H37">
+        <v>61.084052</v>
+      </c>
+      <c r="I37">
+        <v>0.07230245920027331</v>
+      </c>
+      <c r="J37">
+        <v>0.07230245920027331</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>23.53999566666667</v>
+      </c>
+      <c r="N37">
+        <v>70.61998700000001</v>
+      </c>
+      <c r="O37">
+        <v>0.2168709688099352</v>
+      </c>
+      <c r="P37">
+        <v>0.2168709688099352</v>
+      </c>
+      <c r="Q37">
+        <v>479.3061064608139</v>
+      </c>
+      <c r="R37">
+        <v>4313.754958147325</v>
+      </c>
+      <c r="S37">
+        <v>0.01568030437410409</v>
+      </c>
+      <c r="T37">
+        <v>0.01568030437410409</v>
       </c>
     </row>
   </sheetData>
